--- a/Ejercicios/Ejercicio Pert.xlsx
+++ b/Ejercicios/Ejercicio Pert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A64DCF-10A5-474F-8725-8BCE71D8B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF20EE8-91BB-4AC2-8EFD-2EC05387E4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8CD8907-08C7-4F3F-829D-81D0156A26AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8CD8907-08C7-4F3F-829D-81D0156A26AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -381,11 +382,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -415,6 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,11 +427,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,72 +749,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1E146C-963D-46A2-9F4A-401BD6B13DC6}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="80.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="1"/>
+    <col min="21" max="21" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="U1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
+      <c r="U1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="21"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -881,7 +889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -913,7 +921,7 @@
       <c r="R3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="24">
         <f>29000*10</f>
         <v>290000</v>
       </c>
@@ -938,7 +946,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -970,7 +978,7 @@
       <c r="R4" s="14">
         <v>1</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="24">
         <f>30000*2</f>
         <v>60000</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1035,7 @@
       <c r="R5" s="14">
         <v>2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="24">
         <f>28000*2</f>
         <v>56000</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1092,7 @@
       <c r="R6" s="14">
         <v>2</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="24">
         <f>28000*3</f>
         <v>84000</v>
       </c>
@@ -1109,7 +1117,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1141,7 +1149,7 @@
       <c r="R7" s="14">
         <v>4</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="24">
         <f>26000*2</f>
         <v>52000</v>
       </c>
@@ -1166,7 +1174,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +1206,7 @@
       <c r="R8" s="14">
         <v>5</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="24">
         <f>36000</f>
         <v>36000</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1263,7 @@
       <c r="R9" s="14">
         <v>3</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="24">
         <f>30000*8</f>
         <v>240000</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1320,7 @@
       <c r="R10" s="14">
         <v>3</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="24">
         <f t="shared" ref="S10" si="2">30000*8</f>
         <v>240000</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1369,7 +1377,7 @@
       <c r="R11" s="14">
         <v>6</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="24">
         <f>20000*2</f>
         <v>40000</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
@@ -1426,7 +1434,7 @@
       <c r="R12" s="15">
         <v>9</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="25">
         <f>15000*2</f>
         <v>30000</v>
       </c>
@@ -1451,18 +1459,28 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P13" s="26">
+        <f>S3/0.6</f>
+        <v>483333.33333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="U14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="O15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="23">
         <f>SUM(S3:S12)</f>
         <v>1128000</v>
+      </c>
+      <c r="S15" s="26">
+        <f>Q15/8.5</f>
+        <v>132705.88235294117</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>44</v>
@@ -1472,7 +1490,7 @@
         <v>197.33333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="U16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1481,7 +1499,7 @@
         <v>30.333333333333332</v>
       </c>
     </row>
-    <row r="19" spans="21:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="21:23" x14ac:dyDescent="0.3">
       <c r="U19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1494,7 +1512,7 @@
         <v>1.7292495555230414E-8</v>
       </c>
     </row>
-    <row r="20" spans="21:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="21:23" x14ac:dyDescent="0.3">
       <c r="U20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>2.0123295434424526E-4</v>
       </c>
     </row>
-    <row r="21" spans="21:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="21:23" x14ac:dyDescent="0.3">
       <c r="U21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1515,7 +1533,7 @@
         <f>(120-$V$15)/$V$16</f>
         <v>-2.5494505494505488</v>
       </c>
-      <c r="W21" s="22">
+      <c r="W21" s="19">
         <f t="shared" si="3"/>
         <v>5.3946405554097503E-3</v>
       </c>
